--- a/biology/Médecine/Wilhelm_Uhthoff/Wilhelm_Uhthoff.xlsx
+++ b/biology/Médecine/Wilhelm_Uhthoff/Wilhelm_Uhthoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Uhthoff, né le 31 juillet 1853 à Klein-Warin et mort le 21 mars 1927 à Breslau est un médecin ophtalmologiste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat en 1877 à l'université de Berlin et devient par la suite professeur d'ophtalmologie aux Universités de Marburg (1890) et de Breslau (1896) où il succède à Carl Förster (1825-1902).
 Uhthoff se spécialise en neuro-ophtalmologie. En 1890 il décrit une perte temporaire de la vision liée à l'exercice physique et associée à une névrite optique. Ce symptôme fut par la suite désigné sous le nom de phénomène d'Uhthoff et l'on se rendit compte qu'il était dû en fait à l'augmentation de la température corporelle. 
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Untersuchungen über die bei der multiplen Herdsklerose vorkommenden Augenstörungen. Archiv für Psychiatrie und Nervenkrankheiten, Berlin, 1890, 21: 55-116 and 303-410. W. Uhthoff
 Die Augenstörungen bei Vergiftungen Handbuch der Augenheilkunde, 2nd edition, volume 11, 2 A. Leipzig, 1911.
